--- a/biology/Médecine/Philippe_Laudat/Philippe_Laudat.xlsx
+++ b/biology/Médecine/Philippe_Laudat/Philippe_Laudat.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Philippe Laudat, né le 1er novembre 1930 à Boulogne-Billancourt et mort le 30 juillet 1987 à Paris[1], est un pharmacien, un biologiste et chercheur en endocrinologie français. Il a été directeur général de l'INSERM de 1979 à 1982.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Philippe Laudat, né le 1er novembre 1930 à Boulogne-Billancourt et mort le 30 juillet 1987 à Paris, est un pharmacien, un biologiste et chercheur en endocrinologie français. Il a été directeur général de l'INSERM de 1979 à 1982.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Philippe Laudat devient docteur en pharmacie en 1959 et travaille avec Lucien de Gennes à l'Institut national d'hygiène. Il développe son travail dans le domaine de l'endocrinologie et la neurologie. Il devient directeur de recherche à l'INSERM en 1964 et directeur d'une unité de recherche sur le métabolisme lipidique. Après avoir été, à partir de 1974, directeur scientifique de l'institut auprès de Constant Burg, il lui succède à la direction générale en 1979. Il dirige l'INSERM de 1979 à 1982.
 </t>
@@ -542,7 +556,9 @@
           <t>Apport scientifique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Endocrinologue spécialiste du métabolisme des lipides et de la nutrition, Philippe Laudat s'est également consacré à la recherche sur la maladie de Refsum.
 </t>
